--- a/APS_data_analysis/mcsas_fit/MCsas_result_screening.xlsx
+++ b/APS_data_analysis/mcsas_fit/MCsas_result_screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgpelkie/Code/silica-np-synthesis/APS_data_analysis/mcsas_fit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DCA1F2E6-2D9C-FD46-8ED6-56A3E17FC995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2CADD1C9-7DE1-4449-AE39-35FD76733CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{69E1BC8E-8F2A-3A47-8465-1C030582778A}"/>
+    <workbookView xWindow="-51200" yWindow="-5120" windowWidth="51200" windowHeight="28300" xr2:uid="{69E1BC8E-8F2A-3A47-8465-1C030582778A}"/>
   </bookViews>
   <sheets>
     <sheet name="MCsas_result_screening" sheetId="1" r:id="rId1"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299F0B99-1D89-134A-AC2A-13EA2F3277EE}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
